--- a/config/EventLogSetting.xlsx
+++ b/config/EventLogSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17820" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="全局属性配置" sheetId="20" r:id="rId1"/>
@@ -72,171 +72,171 @@
     <t>csvIndex</t>
   </si>
   <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>ssType</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>recordName</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>logType</t>
+  </si>
+  <si>
+    <t>#account_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>用户账号</t>
+  </si>
+  <si>
+    <t>#time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>事件产生时间</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>运营商</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>user_role_id</t>
+  </si>
+  <si>
+    <t>玩家唯一id</t>
+  </si>
+  <si>
+    <t>player_level</t>
+  </si>
+  <si>
+    <t>玩家等级</t>
+  </si>
+  <si>
+    <t>total_charge_money</t>
+  </si>
+  <si>
+    <t>充值金额</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>common_information</t>
+  </si>
+  <si>
+    <t>附加信息</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>register_record</t>
+  </si>
+  <si>
+    <t>RegisterRecord</t>
+  </si>
+  <si>
+    <t>flog</t>
+  </si>
+  <si>
+    <t>渠道ID</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>注册IP</t>
+  </si>
+  <si>
+    <t>app_version</t>
+  </si>
+  <si>
+    <t>应用版本号</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>操作系统类型</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>操作系统版本号</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>imei</t>
+  </si>
+  <si>
+    <t>设备唯一标识</t>
+  </si>
+  <si>
+    <t>role_create_time</t>
+  </si>
+  <si>
+    <t>user_setOnce</t>
+  </si>
+  <si>
+    <t>账号创建时间</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>ssType</t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>recordName</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>logType</t>
-  </si>
-  <si>
-    <t>#account_id</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>用户账号</t>
-  </si>
-  <si>
-    <t>#time</t>
-  </si>
-  <si>
-    <t>java.util.Date</t>
-  </si>
-  <si>
-    <t>事件产生时间</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
-    <t>运营商</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>user_role_id</t>
-  </si>
-  <si>
-    <t>java.lang.Long</t>
-  </si>
-  <si>
-    <t>玩家唯一id</t>
-  </si>
-  <si>
-    <t>player_level</t>
-  </si>
-  <si>
-    <t>玩家等级</t>
-  </si>
-  <si>
-    <t>total_charge_money</t>
-  </si>
-  <si>
-    <t>充值金额</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>common_information</t>
-  </si>
-  <si>
-    <t>附加信息</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>register_record</t>
-  </si>
-  <si>
-    <t>RegisterRecord</t>
-  </si>
-  <si>
-    <t>flog</t>
-  </si>
-  <si>
-    <t>渠道ID</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>注册IP</t>
-  </si>
-  <si>
-    <t>app_version</t>
-  </si>
-  <si>
-    <t>应用版本号</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>操作系统类型</t>
-  </si>
-  <si>
-    <t>os_version</t>
-  </si>
-  <si>
-    <t>操作系统版本号</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>imei</t>
-  </si>
-  <si>
-    <t>设备唯一标识</t>
-  </si>
-  <si>
-    <t>role_create_time</t>
-  </si>
-  <si>
-    <t>user_setOnce</t>
-  </si>
-  <si>
-    <t>账号创建时间</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>角色id</t>
-  </si>
-  <si>
-    <t>role_name</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
     <t>log_record</t>
   </si>
   <si>
@@ -366,7 +366,7 @@
     <t>test_charge</t>
   </si>
   <si>
-    <t>java.lang.Boolean</t>
+    <t>bool</t>
   </si>
   <si>
     <t>是否为测试充值</t>
@@ -683,10 +683,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -745,7 +745,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +768,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,98 +797,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,11 +818,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -897,19 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +909,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,37 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +1023,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,67 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,17 +1094,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,21 +1166,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1159,32 +1180,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,148 +1193,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1690,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -1865,13 +1865,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1879,7 +1879,7 @@
         <v>1006</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1891,7 +1891,7 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1899,19 +1899,19 @@
         <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1919,7 +1919,7 @@
         <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1931,18 +1931,18 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1009</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1954,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -2061,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>142</v>
@@ -2091,7 +2091,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>142</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>20003</v>
@@ -2121,10 +2121,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>142</v>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -2244,7 +2244,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>150</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>152</v>
@@ -2274,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>150</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>154</v>
@@ -2304,7 +2304,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>150</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>156</v>
@@ -2334,7 +2334,7 @@
         <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>150</v>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>158</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>21005</v>
@@ -2367,7 +2367,7 @@
         <v>160</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>150</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>161</v>
@@ -2423,7 +2423,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -2515,7 +2515,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>162</v>
@@ -2545,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>162</v>
@@ -2575,7 +2575,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>162</v>
@@ -2605,7 +2605,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>162</v>
@@ -2635,7 +2635,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>162</v>
@@ -2665,7 +2665,7 @@
         <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>162</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>22007</v>
@@ -2695,10 +2695,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>162</v>
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -2836,7 +2836,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>177</v>
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>177</v>
@@ -2896,7 +2896,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>177</v>
@@ -2926,7 +2926,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>177</v>
@@ -2953,10 +2953,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>177</v>
@@ -2986,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>177</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>23007</v>
@@ -3019,7 +3019,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>177</v>
@@ -3059,7 +3059,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -3152,7 +3152,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>182</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>182</v>
@@ -3212,7 +3212,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>182</v>
@@ -3242,7 +3242,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>182</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>24005</v>
@@ -3272,10 +3272,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>182</v>
@@ -3314,8 +3314,8 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -3408,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>185</v>
@@ -3435,10 +3435,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>185</v>
@@ -3465,10 +3465,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>185</v>
@@ -3498,7 +3498,7 @@
         <v>160</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>185</v>
@@ -3528,7 +3528,7 @@
         <v>160</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>185</v>
@@ -3558,7 +3558,7 @@
         <v>160</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
@@ -3588,7 +3588,7 @@
         <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>185</v>
@@ -3618,7 +3618,7 @@
         <v>160</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>185</v>
@@ -3648,7 +3648,7 @@
         <v>160</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>185</v>
@@ -3678,7 +3678,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>185</v>
@@ -3708,7 +3708,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>185</v>
@@ -3738,7 +3738,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>185</v>
@@ -3768,7 +3768,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>185</v>
@@ -3798,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>185</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>25015</v>
@@ -3831,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>185</v>
@@ -3859,7 +3859,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -3944,7 +3944,7 @@
         <v>12001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
@@ -3953,20 +3953,20 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -3974,7 +3974,7 @@
         <v>12002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>13</v>
@@ -3983,20 +3983,20 @@
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -4004,7 +4004,7 @@
         <v>12003</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
         <v>14</v>
@@ -4013,20 +4013,20 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -4034,7 +4034,7 @@
         <v>12004</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>15</v>
@@ -4043,20 +4043,20 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4064,7 +4064,7 @@
         <v>12005</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>16</v>
@@ -4073,20 +4073,20 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4094,7 +4094,7 @@
         <v>12006</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2">
         <v>17</v>
@@ -4103,20 +4103,20 @@
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4124,7 +4124,7 @@
         <v>12007</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>18</v>
@@ -4133,20 +4133,20 @@
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -4154,7 +4154,7 @@
         <v>12008</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -4163,16 +4163,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
         <v>63</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -4180,7 +4180,7 @@
         <v>12009</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -4189,27 +4189,27 @@
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>12010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4218,16 +4218,16 @@
         <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:8">
@@ -4256,7 +4256,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -4340,7 +4340,7 @@
         <v>13001</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -4349,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>69</v>
@@ -4372,7 +4372,7 @@
         <v>13002</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -4381,7 +4381,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>69</v>
@@ -4410,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -4439,7 +4439,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>69</v>
@@ -4459,7 +4459,7 @@
         <v>13005</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -4468,7 +4468,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>69</v>
@@ -4488,7 +4488,7 @@
         <v>13006</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -4497,7 +4497,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
@@ -4509,7 +4509,7 @@
         <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -4526,7 +4526,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
@@ -4555,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>13009</v>
@@ -4615,7 +4615,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4704,7 +4704,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
@@ -4733,7 +4733,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
@@ -4762,7 +4762,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>88</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>14004</v>
@@ -4791,10 +4791,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
@@ -4833,7 +4833,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4922,7 +4922,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>15002</v>
@@ -4951,10 +4951,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -4993,7 +4993,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5084,7 +5084,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>99</v>
@@ -5114,7 +5114,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>99</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>16003</v>
@@ -5144,10 +5144,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>99</v>
@@ -5187,7 +5187,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -5279,7 +5279,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>104</v>
@@ -5288,7 +5288,7 @@
         <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>106</v>
@@ -5308,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>104</v>
@@ -5317,7 +5317,7 @@
         <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>108</v>
@@ -5337,7 +5337,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>104</v>
@@ -5346,7 +5346,7 @@
         <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>110</v>
@@ -5366,7 +5366,7 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>104</v>
@@ -5375,7 +5375,7 @@
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>113</v>
@@ -5395,7 +5395,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>104</v>
@@ -5404,7 +5404,7 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
         <v>115</v>
@@ -5424,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>104</v>
@@ -5433,7 +5433,7 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
         <v>117</v>
@@ -5453,7 +5453,7 @@
         <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>104</v>
@@ -5462,7 +5462,7 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
         <v>119</v>
@@ -5470,13 +5470,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>17008</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5491,7 +5491,7 @@
         <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>120</v>
@@ -5543,7 +5543,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -5634,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>122</v>
@@ -5643,7 +5643,7 @@
         <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>124</v>
@@ -5663,7 +5663,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>122</v>
@@ -5672,7 +5672,7 @@
         <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>126</v>
@@ -5689,10 +5689,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>122</v>
@@ -5701,7 +5701,7 @@
         <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>128</v>
@@ -5718,10 +5718,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>122</v>
@@ -5730,7 +5730,7 @@
         <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>130</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>18009</v>
@@ -5750,7 +5750,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
@@ -5759,7 +5759,7 @@
         <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
         <v>132</v>
@@ -5789,7 +5789,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -5880,7 +5880,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>134</v>
@@ -5889,7 +5889,7 @@
         <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>136</v>
@@ -5909,7 +5909,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>134</v>
@@ -5918,7 +5918,7 @@
         <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>138</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>19003</v>
@@ -5941,7 +5941,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -5950,7 +5950,7 @@
         <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>140</v>
